--- a/202408/240801/정승현평가.xlsx
+++ b/202408/240801/정승현평가.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>chapter 01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,10 +162,6 @@
   </si>
   <si>
     <t>1-&gt;3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-&gt;1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -202,6 +198,60 @@
 다) int
 라) 22</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,2,4,6,8]
+[0,1,2,3,4,5,6,7,8,9]
+[zero, one, two, three]
+cs50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chapter 09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chapter 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chapter 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chapter 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chapter 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chapter 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chapter 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-&gt;4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I left the company
+I got a job at a company
+My name is james
+I am a man</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1-&gt;2 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -358,7 +408,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -424,6 +474,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="2">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -708,18 +761,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:AK20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="4" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="3.875" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="3.375" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
@@ -728,13 +782,28 @@
     <col min="11" max="11" width="4.25" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
     <col min="13" max="13" width="4.125" customWidth="1"/>
-    <col min="14" max="14" width="10.375" customWidth="1"/>
+    <col min="14" max="14" width="8.75" customWidth="1"/>
     <col min="15" max="15" width="4.125" customWidth="1"/>
     <col min="16" max="16" width="4.5" customWidth="1"/>
-    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="17" max="17" width="15.625" customWidth="1"/>
+    <col min="18" max="18" width="4.375" customWidth="1"/>
+    <col min="19" max="19" width="3.125" customWidth="1"/>
+    <col min="20" max="20" width="11.5" customWidth="1"/>
+    <col min="21" max="21" width="2.875" customWidth="1"/>
+    <col min="22" max="22" width="3.125" customWidth="1"/>
+    <col min="24" max="24" width="2.625" customWidth="1"/>
+    <col min="25" max="25" width="3.375" customWidth="1"/>
+    <col min="27" max="27" width="2" customWidth="1"/>
+    <col min="28" max="28" width="2.875" customWidth="1"/>
+    <col min="30" max="30" width="2.875" customWidth="1"/>
+    <col min="31" max="31" width="3.75" customWidth="1"/>
+    <col min="33" max="33" width="2.25" customWidth="1"/>
+    <col min="34" max="34" width="2.625" customWidth="1"/>
+    <col min="36" max="36" width="2.125" customWidth="1"/>
+    <col min="37" max="37" width="2.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -764,8 +833,29 @@
       <c r="P1" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -811,11 +901,35 @@
       <c r="P2">
         <v>1</v>
       </c>
-      <c r="Q2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q2" s="18">
+        <v>3</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -861,11 +975,35 @@
       <c r="P3">
         <v>2</v>
       </c>
-      <c r="Q3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q3" s="18">
+        <v>5</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>2</v>
+      </c>
+      <c r="AB3">
+        <v>2</v>
+      </c>
+      <c r="AE3">
+        <v>2</v>
+      </c>
+      <c r="AH3">
+        <v>2</v>
+      </c>
+      <c r="AK3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -911,11 +1049,35 @@
       <c r="P4">
         <v>3</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="18">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="Y4">
+        <v>3</v>
+      </c>
+      <c r="AB4">
+        <v>3</v>
+      </c>
+      <c r="AE4">
+        <v>3</v>
+      </c>
+      <c r="AH4">
+        <v>3</v>
+      </c>
+      <c r="AK4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -961,11 +1123,35 @@
       <c r="P5">
         <v>4</v>
       </c>
-      <c r="Q5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q5" s="18">
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>4</v>
+      </c>
+      <c r="AB5">
+        <v>4</v>
+      </c>
+      <c r="AE5">
+        <v>4</v>
+      </c>
+      <c r="AH5">
+        <v>4</v>
+      </c>
+      <c r="AK5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1011,11 +1197,35 @@
       <c r="P6">
         <v>5</v>
       </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q6" s="18">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="V6">
+        <v>5</v>
+      </c>
+      <c r="Y6">
+        <v>5</v>
+      </c>
+      <c r="AB6">
+        <v>5</v>
+      </c>
+      <c r="AE6">
+        <v>5</v>
+      </c>
+      <c r="AH6">
+        <v>5</v>
+      </c>
+      <c r="AK6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>6</v>
       </c>
@@ -1055,11 +1265,35 @@
       <c r="P7">
         <v>6</v>
       </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q7" s="18">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>6</v>
+      </c>
+      <c r="T7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>6</v>
+      </c>
+      <c r="Y7">
+        <v>6</v>
+      </c>
+      <c r="AB7">
+        <v>6</v>
+      </c>
+      <c r="AE7">
+        <v>6</v>
+      </c>
+      <c r="AH7">
+        <v>6</v>
+      </c>
+      <c r="AK7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>7</v>
       </c>
@@ -1099,11 +1333,35 @@
       <c r="P8">
         <v>7</v>
       </c>
-      <c r="Q8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q8" s="18">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>7</v>
+      </c>
+      <c r="T8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>7</v>
+      </c>
+      <c r="Y8">
+        <v>7</v>
+      </c>
+      <c r="AB8">
+        <v>7</v>
+      </c>
+      <c r="AE8">
+        <v>7</v>
+      </c>
+      <c r="AH8">
+        <v>7</v>
+      </c>
+      <c r="AK8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>8</v>
       </c>
@@ -1143,8 +1401,29 @@
       <c r="P9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q9" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9">
+        <v>8</v>
+      </c>
+      <c r="Y9">
+        <v>8</v>
+      </c>
+      <c r="AB9">
+        <v>8</v>
+      </c>
+      <c r="AE9">
+        <v>8</v>
+      </c>
+      <c r="AH9">
+        <v>8</v>
+      </c>
+      <c r="AK9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>9</v>
       </c>
@@ -1184,8 +1463,26 @@
       <c r="P10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="V10">
+        <v>9</v>
+      </c>
+      <c r="Y10">
+        <v>9</v>
+      </c>
+      <c r="AB10">
+        <v>9</v>
+      </c>
+      <c r="AH10">
+        <v>9</v>
+      </c>
+      <c r="AK10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>10</v>
       </c>
@@ -1219,14 +1516,29 @@
       <c r="M11">
         <v>10</v>
       </c>
-      <c r="N11" s="17" t="s">
-        <v>35</v>
+      <c r="N11" s="16">
+        <v>2</v>
       </c>
       <c r="P11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q11" s="18">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>10</v>
+      </c>
+      <c r="AB11">
+        <v>10</v>
+      </c>
+      <c r="AH11">
+        <v>10</v>
+      </c>
+      <c r="AK11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>11</v>
       </c>
@@ -1266,8 +1578,14 @@
       <c r="P12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q12" s="18">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>12</v>
       </c>
@@ -1302,13 +1620,19 @@
         <v>12</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q13" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="V13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>13</v>
       </c>
@@ -1343,13 +1667,10 @@
         <v>13</v>
       </c>
       <c r="N14" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="P14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>14</v>
       </c>
@@ -1386,11 +1707,8 @@
       <c r="N15" s="16">
         <v>4</v>
       </c>
-      <c r="P15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>15</v>
       </c>
@@ -1414,9 +1732,6 @@
       </c>
       <c r="N16" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="P16">
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.3">
